--- a/biology/Zoologie/Chilocorus/Chilocorus.xlsx
+++ b/biology/Zoologie/Chilocorus/Chilocorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilocorus est un genre d'Insectes coléoptères prédateurs de la famille des Coccinellidés, dont les larves et les adultes ont pour proies principalement les Pucerons et les Cochenilles sur les arbres fruitiers et la vigne.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chilocorus bipustulatus (Linnaeus, 1758)
 Chilocorus baileyi (Blackburn, 1890)
